--- a/DuLieuMail/FileDuLieu.xlsx
+++ b/DuLieuMail/FileDuLieu.xlsx
@@ -156,9 +156,6 @@
     <t>22- DÂN CHỦ, KCN VSIP II, P.PHÚ HÒA, TP.THỦ DẦU MỘT, BÌNH DƯƠNG</t>
   </si>
   <si>
-    <t>apo@volbin.com</t>
-  </si>
-  <si>
     <t>C.BỬU: 0903 330 728</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>NHÀ XƯỞNG 2- TIÊN PHONG 5, KCN MAPLETREE BÌNH DƯƠN, P.HÒA PHÚ, TP.THỦ DẦU MỘT, BÌNH DƯƠNG</t>
   </si>
   <si>
-    <t>Ly.Duong@stollemachinery.com/thao.huynh@stollemachinery.com</t>
-  </si>
-  <si>
     <t>C.THẢO: 0903 867 229</t>
   </si>
   <si>
@@ -259,6 +253,12 @@
   </si>
   <si>
     <t>9704152101706553</t>
+  </si>
+  <si>
+    <t>phatltse62882@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>phatltse62882@fpt.edu.vn/lamthanhphat98@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,8 +655,8 @@
     <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="122.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="132.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="91.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTIF($F$2:$F$28,F2)</f>
+        <f t="shared" ref="G2:G28" si="0">COUNTIF($F$2:$F$28,F2)</f>
         <v>1</v>
       </c>
       <c r="H2" s="1">
@@ -726,11 +726,11 @@
       <c r="J2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -743,29 +743,29 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>COUNTIF($F$2:$F$28,F3)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -778,29 +778,29 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <f>COUNTIF($F$2:$F$28,F4)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -813,29 +813,29 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <f>COUNTIF($F$2:$F$28,F5)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -848,29 +848,29 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <f>COUNTIF($F$2:$F$28,F6)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -883,29 +883,29 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <f>COUNTIF($F$2:$F$28,F7)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -918,29 +918,29 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f>COUNTIF($F$2:$F$28,F8)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -953,29 +953,29 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <f>COUNTIF($F$2:$F$28,F9)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -988,29 +988,29 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <f>COUNTIF($F$2:$F$28,F10)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1023,29 +1023,29 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <f>COUNTIF($F$2:$F$28,F11)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1058,29 +1058,29 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f>COUNTIF($F$2:$F$28,F12)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1093,29 +1093,29 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f>COUNTIF($F$2:$F$28,F13)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1128,29 +1128,29 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <f>COUNTIF($F$2:$F$28,F14)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1163,29 +1163,29 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <f>COUNTIF($F$2:$F$28,F15)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1198,29 +1198,29 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <f>COUNTIF($F$2:$F$28,F16)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1233,29 +1233,29 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f>COUNTIF($F$2:$F$28,F17)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1268,29 +1268,29 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f>COUNTIF($F$2:$F$28,F18)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1303,29 +1303,29 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <f>COUNTIF($F$2:$F$28,F19)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1338,29 +1338,29 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <f>COUNTIF($F$2:$F$28,F20)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <f>COUNTIF($F$2:$F$28,F21)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1408,29 +1408,29 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <f>COUNTIF($F$2:$F$28,F22)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1443,29 +1443,29 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <f>COUNTIF($F$2:$F$28,F23)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1478,29 +1478,29 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <f>COUNTIF($F$2:$F$28,F24)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1513,29 +1513,29 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <f>COUNTIF($F$2:$F$28,F25)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1543,36 +1543,36 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <f>COUNTIF($F$2:$F$28,F26)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1580,36 +1580,36 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <f>COUNTIF($F$2:$F$28,F27)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1617,42 +1617,44 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <f>COUNTIF($F$2:$F$28,F28)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L28"/>
   <hyperlinks>
-    <hyperlink ref="K24" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4:K28" r:id="rId3" display="phatltse62882@fpt.edu.vn/lamthanhphat98@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
